--- a/Resources/2014/Basic_Percentile_2014.xlsx
+++ b/Resources/2014/Basic_Percentile_2014.xlsx
@@ -2218,7 +2218,7 @@
     <t>Chris Andersen</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Marco Belinelli</t>
@@ -2293,7 +2293,7 @@
     <t>Greivis Vasquez</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Chris Douglas-Roberts</t>
